--- a/test_cor.xlsx
+++ b/test_cor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Name</t>
   </si>
@@ -27,19 +27,7 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
+    <t>Lanmadaw</t>
   </si>
 </sst>
 </file>
@@ -386,20 +374,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="A3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -410,63 +399,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>16.797699999999999</v>
+        <v>16.779499999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>96.142600000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>16.797999999999998</v>
-      </c>
-      <c r="C3" s="1">
-        <v>96.149600000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>16.788900000000002</v>
-      </c>
-      <c r="C4" s="1">
-        <v>96.145099999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>16.790600000000001</v>
-      </c>
-      <c r="C5" s="1">
-        <v>96.151899999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>16.7959</v>
-      </c>
-      <c r="C6" s="1">
-        <v>96.159800000000004</v>
+        <v>96.147999999999996</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
